--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>Course</t>
   </si>
@@ -91,7 +91,7 @@
     <t>BUSH-636</t>
   </si>
   <si>
-    <t>BUSH S</t>
+    <t>REINHARDT G</t>
   </si>
   <si>
     <t>62.50%</t>
@@ -103,18 +103,6 @@
     <t>12.50%</t>
   </si>
   <si>
-    <t>INTERNATIONAL A</t>
-  </si>
-  <si>
-    <t>REINHARDT G</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
     <t>INTA-601</t>
   </si>
   <si>
@@ -436,6 +424,15 @@
     <t>BOYLE D</t>
   </si>
   <si>
+    <t>GOTTLIEB J</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
     <t>SNIDER E</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>72.73%</t>
   </si>
   <si>
-    <t>27.27%</t>
-  </si>
-  <si>
     <t>PSAA-608</t>
   </si>
   <si>
@@ -676,7 +670,7 @@
     <t>PORTNEY K</t>
   </si>
   <si>
-    <t>COLLEGE T</t>
+    <t>SULLIVAN R</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,576 +1148,535 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="C19" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>38</v>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>3.111</v>
+        <v>3.579</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>3.118</v>
+        <v>3.591</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.579</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C30" t="n">
-        <v>3.591</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C29" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E29" t="s">
         <v>54</v>
       </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C33" t="n">
-        <v>3.733</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D32" t="s">
         <v>57</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C35" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E35" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
+      <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="C39" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C38" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D38" t="s">
         <v>65</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E38" t="s">
         <v>66</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="n">
         <v>3.667</v>
       </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
+      <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E44" t="s">
         <v>74</v>
       </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
+      <c r="B47" t="s">
         <v>76</v>
       </c>
-      <c r="C48" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>77</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="C50" t="n">
+        <v>3.8635</v>
+      </c>
+      <c r="D50" t="s">
         <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C51" t="n">
-        <v>2.5</v>
+        <v>3.443</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" t="n">
-        <v>3.8635</v>
+        <v>2.923</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C55" t="n">
-        <v>3.443</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.923</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E61" t="s">
         <v>89</v>
       </c>
-      <c r="E58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>94</v>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D62" t="s">
         <v>95</v>
       </c>
-      <c r="C62" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D62" t="s">
-        <v>96</v>
-      </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -1737,128 +1690,128 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
         <v>98</v>
       </c>
-      <c r="C65" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
         <v>99</v>
       </c>
-      <c r="E66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+      <c r="C68" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="D68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
         <v>101</v>
       </c>
-      <c r="C69" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>102</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C72" t="n">
-        <v>3.417</v>
+        <v>3.9</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C75" t="n">
-        <v>3.546</v>
+        <v>3.571</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -1867,158 +1820,199 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" t="s">
-        <v>111</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
         <v>113</v>
       </c>
-      <c r="C79" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D81" t="s">
         <v>114</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>115</v>
       </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" t="n">
+    <row r="84" spans="1:8">
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" t="n">
         <v>4</v>
       </c>
-      <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D85" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>120</v>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D88" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>121</v>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -2035,19 +2029,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -2058,16 +2052,16 @@
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" t="n">
-        <v>3.889</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -2081,13 +2075,13 @@
     </row>
     <row r="94" spans="1:8">
       <c r="B94" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -2104,13 +2098,13 @@
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -2127,13 +2121,13 @@
     </row>
     <row r="96" spans="1:8">
       <c r="B96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -2148,143 +2142,102 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4</v>
-      </c>
-      <c r="D97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
+      <c r="A98" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D102" t="s">
         <v>127</v>
       </c>
-      <c r="C99" t="n">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
+      <c r="E102" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="n">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="105" spans="1:8">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>130</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C106" t="n">
-        <v>3.833</v>
+        <v>3.875</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -2296,23 +2249,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>133</v>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" t="s">
+        <v>104</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C109" t="n">
-        <v>3.454</v>
+        <v>3.6125</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -2326,16 +2320,16 @@
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C110" t="n">
-        <v>3.454</v>
+        <v>3.647</v>
       </c>
       <c r="D110" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -2349,16 +2343,16 @@
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C111" t="n">
-        <v>3.875</v>
+        <v>3.85</v>
       </c>
       <c r="D111" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
@@ -2370,64 +2364,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="113" spans="1:8">
-      <c r="B113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>118</v>
-      </c>
-      <c r="E113" t="s">
-        <v>119</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
+      <c r="A113" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="B114" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="C114" t="n">
-        <v>3.454</v>
+        <v>3.625</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -2439,64 +2392,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3.6125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="116" spans="1:8">
-      <c r="B116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" t="s">
-        <v>136</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
+      <c r="A116" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C117" t="n">
-        <v>3.647</v>
+        <v>3.222</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -2505,21 +2417,21 @@
         <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C118" t="n">
-        <v>3.85</v>
+        <v>3.727</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -2533,21 +2445,21 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C121" t="n">
-        <v>3.625</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -2561,21 +2473,21 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C124" t="n">
-        <v>3.222</v>
+        <v>3.6485</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E124" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
@@ -2584,21 +2496,21 @@
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C125" t="n">
-        <v>3.727</v>
+        <v>3.655</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -2612,18 +2524,18 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -2640,24 +2552,24 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C131" t="n">
-        <v>3.6485</v>
+        <v>3.636</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E131" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
@@ -2668,16 +2580,16 @@
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C132" t="n">
-        <v>3.655</v>
+        <v>3.467</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
@@ -2691,21 +2603,21 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3.688</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -2717,46 +2629,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>165</v>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.783</v>
+      </c>
+      <c r="D136" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" t="s">
+        <v>175</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D138" t="s">
-        <v>167</v>
-      </c>
-      <c r="E138" t="s">
-        <v>153</v>
-      </c>
-      <c r="F138" t="s">
-        <v>168</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s">
-        <v>13</v>
+      <c r="A138" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C139" t="n">
-        <v>3.467</v>
+        <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
@@ -2770,24 +2682,24 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C142" t="n">
-        <v>3.688</v>
+        <v>3.625</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
@@ -2798,16 +2710,16 @@
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C143" t="n">
-        <v>3.783</v>
+        <v>3.812</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F143" t="s">
         <v>13</v>
@@ -2821,72 +2733,72 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D146" t="s">
+        <v>127</v>
+      </c>
+      <c r="E146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F146" t="s">
+        <v>100</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" t="n">
         <v>4</v>
       </c>
-      <c r="D146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>180</v>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>181</v>
-      </c>
-      <c r="C149" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D149" t="s">
-        <v>99</v>
-      </c>
-      <c r="E149" t="s">
-        <v>28</v>
-      </c>
-      <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
+      <c r="A149" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C150" t="n">
-        <v>3.812</v>
+        <v>3.842</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="E150" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -2900,24 +2812,24 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C153" t="n">
-        <v>3.75</v>
+        <v>3.857</v>
       </c>
       <c r="D153" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="F153" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
         <v>13</v>
@@ -2926,158 +2838,158 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>186</v>
-      </c>
-      <c r="C154" t="n">
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="n">
         <v>4</v>
       </c>
-      <c r="D154" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D159" t="s">
+        <v>194</v>
+      </c>
+      <c r="E159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>70</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
         <v>188</v>
       </c>
-      <c r="C157" t="n">
-        <v>3.842</v>
-      </c>
-      <c r="D157" t="s">
-        <v>83</v>
-      </c>
-      <c r="E157" t="s">
-        <v>84</v>
-      </c>
-      <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>190</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D160" t="s">
-        <v>191</v>
-      </c>
-      <c r="E160" t="s">
-        <v>192</v>
-      </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>169</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4</v>
-      </c>
-      <c r="D163" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>195</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3.294</v>
-      </c>
-      <c r="D166" t="s">
-        <v>196</v>
-      </c>
-      <c r="E166" t="s">
-        <v>44</v>
-      </c>
-      <c r="F166" t="s">
-        <v>197</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>13</v>
+      <c r="C165" t="n">
+        <v>3.2225</v>
+      </c>
+      <c r="D165" t="s">
+        <v>199</v>
+      </c>
+      <c r="E165" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" t="s">
+        <v>201</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>198</v>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" t="s">
+        <v>205</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C169" t="n">
-        <v>3.714</v>
+        <v>3.429</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E169" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
@@ -3089,74 +3001,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>200</v>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="D170" t="s">
+        <v>103</v>
+      </c>
+      <c r="E170" t="s">
+        <v>207</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>190</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3.2225</v>
-      </c>
-      <c r="D172" t="s">
-        <v>201</v>
-      </c>
-      <c r="E172" t="s">
-        <v>202</v>
-      </c>
-      <c r="F172" t="s">
-        <v>203</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>204</v>
+      <c r="A172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>205</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D175" t="s">
-        <v>65</v>
-      </c>
-      <c r="E175" t="s">
-        <v>206</v>
-      </c>
-      <c r="F175" t="s">
-        <v>207</v>
-      </c>
-      <c r="G175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" t="s">
-        <v>13</v>
+      <c r="A175" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C176" t="n">
-        <v>3.429</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -3168,71 +3080,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.682</v>
-      </c>
-      <c r="D177" t="s">
-        <v>107</v>
-      </c>
-      <c r="E177" t="s">
-        <v>209</v>
-      </c>
-      <c r="F177" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s">
-        <v>168</v>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>211</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D180" t="s">
-        <v>61</v>
-      </c>
-      <c r="E180" t="s">
-        <v>62</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>212</v>
+      <c r="B182" t="s">
+        <v>150</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -3247,23 +3159,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>214</v>
+      <c r="B185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>3.833</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
@@ -3275,46 +3228,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>215</v>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>61</v>
+      </c>
+      <c r="E187" t="s">
+        <v>61</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>199</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4</v>
-      </c>
-      <c r="D189" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
-        <v>13</v>
+      <c r="A189" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="B190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D190" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
@@ -3328,13 +3281,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E191" t="s">
         <v>13</v>
@@ -3346,126 +3299,6 @@
         <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="B192" t="s">
-        <v>151</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4</v>
-      </c>
-      <c r="D192" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" t="s">
-        <v>13</v>
-      </c>
-      <c r="G192" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>217</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D193" t="s">
-        <v>131</v>
-      </c>
-      <c r="E193" t="s">
-        <v>132</v>
-      </c>
-      <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>205</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D194" t="s">
-        <v>65</v>
-      </c>
-      <c r="E194" t="s">
-        <v>65</v>
-      </c>
-      <c r="F194" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>219</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D197" t="s">
-        <v>118</v>
-      </c>
-      <c r="E197" t="s">
-        <v>119</v>
-      </c>
-      <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>220</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4</v>
-      </c>
-      <c r="D198" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     <t>15.79%</t>
   </si>
   <si>
+    <t>9.52%</t>
+  </si>
+  <si>
     <t>21.05%</t>
   </si>
   <si>
@@ -295,12 +301,18 @@
     <t>46.15%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>INTA-654</t>
   </si>
   <si>
     <t>BLACKWELL J</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>75.00%</t>
   </si>
   <si>
@@ -400,9 +412,6 @@
     <t>83.33%</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>INTA-689</t>
   </si>
   <si>
@@ -490,6 +499,9 @@
     <t>35.90%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>WEST W</t>
   </si>
   <si>
@@ -632,6 +644,9 @@
   </si>
   <si>
     <t>5.00%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
   </si>
   <si>
     <t>MORRISON J</t>
@@ -708,12 +723,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1007,15 +1021,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,2266 +1054,2530 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.696</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>3.706</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>3.419</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
         <v>3.111</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
         <v>3.118</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
         <v>3.579</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
         <v>3.591</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
         <v>3.733</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" t="n">
         <v>3.85</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="n">
         <v>3.125</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="n">
         <v>3.667</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" t="n">
         <v>3.714</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="n">
         <v>3.667</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" t="n">
         <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" t="n">
         <v>3.8635</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="n">
         <v>3.443</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C54" t="n">
         <v>2.923</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" t="n">
         <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C58" t="n">
         <v>3.462</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" t="n">
         <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="n">
         <v>3.75</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C68" t="n">
         <v>3.417</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C71" t="n">
         <v>3.546</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C72" t="n">
         <v>3.9</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C75" t="n">
         <v>3.571</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C81" t="n">
         <v>3.8</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C88" t="n">
         <v>3.7</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C89" t="n">
         <v>3.889</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C99" t="n">
         <v>3.625</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C102" t="n">
         <v>3.833</v>
       </c>
       <c r="D102" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C105" t="n">
         <v>3.454</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C106" t="n">
         <v>3.875</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C107" t="n">
         <v>3.8</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C108" t="n">
         <v>3.546</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E108" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C109" t="n">
         <v>3.6125</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C110" t="n">
         <v>3.647</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E110" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C111" t="n">
         <v>3.85</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C114" t="n">
         <v>3.625</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C117" t="n">
         <v>3.222</v>
       </c>
       <c r="D117" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C118" t="n">
         <v>3.727</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C124" t="n">
         <v>3.6485</v>
       </c>
       <c r="D124" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C125" t="n">
         <v>3.655</v>
       </c>
       <c r="D125" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C131" t="n">
         <v>3.636</v>
       </c>
       <c r="D131" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E131" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F131" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C132" t="n">
         <v>3.467</v>
       </c>
       <c r="D132" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E132" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C135" t="n">
         <v>3.688</v>
       </c>
       <c r="D135" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C136" t="n">
         <v>3.783</v>
       </c>
       <c r="D136" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C142" t="n">
         <v>3.625</v>
       </c>
       <c r="D142" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C143" t="n">
         <v>3.812</v>
       </c>
       <c r="D143" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E143" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C146" t="n">
         <v>3.75</v>
       </c>
       <c r="D146" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E146" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F146" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C150" t="n">
         <v>3.842</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C153" t="n">
         <v>3.857</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E153" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C159" t="n">
         <v>3.294</v>
       </c>
       <c r="D159" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C162" t="n">
         <v>3.714</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C165" t="n">
         <v>3.2225</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E165" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F165" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C168" t="n">
         <v>3.45</v>
       </c>
       <c r="D168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E168" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F168" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C169" t="n">
         <v>3.429</v>
       </c>
       <c r="D169" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E169" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C170" t="n">
         <v>3.682</v>
       </c>
       <c r="D170" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E170" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C173" t="n">
         <v>3.85</v>
       </c>
       <c r="D173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C186" t="n">
         <v>3.833</v>
       </c>
       <c r="D186" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E186" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C187" t="n">
         <v>3.5</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C190" t="n">
         <v>3.8</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E190" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>Course</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>BOWMAN A</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>ROSSER A</t>
@@ -1007,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3210,13 +3213,13 @@
         <v>215</v>
       </c>
       <c r="C186" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
@@ -3230,53 +3233,53 @@
     </row>
     <row r="187" spans="1:8">
       <c r="B187" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D187" t="s">
+        <v>127</v>
+      </c>
+      <c r="E187" t="s">
+        <v>128</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
         <v>203</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C188" t="n">
         <v>3.5</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>61</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>61</v>
       </c>
-      <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>216</v>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="B190" t="s">
+      <c r="A190" t="s">
         <v>217</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D190" t="s">
-        <v>114</v>
-      </c>
-      <c r="E190" t="s">
-        <v>115</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3284,21 +3287,44 @@
         <v>218</v>
       </c>
       <c r="C191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>114</v>
+      </c>
+      <c r="E191" t="s">
+        <v>115</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" t="n">
         <v>4</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>31</v>
       </c>
-      <c r="E191" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
         <v>13</v>
       </c>
     </row>
